--- a/src_files/data_files/demanddata_elec_TYNDP-2024.xlsx
+++ b/src_files/data_files/demanddata_elec_TYNDP-2024.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vttgroup-my.sharepoint.com/personal/eric_harrison_vtt_fi1/Documents/oma_tutkimus_backupit/balticseah2_backups/MMStandardOutputFile_NT2030_Plexos_CY2009_2.5_v40.xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ehjeric\git_backbone\balticseah2\backbone_250414\north_european_model\src_files\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_2B59D2BFD3E0D7314B18361159C420767ED9E4A0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0523F26-7AD4-4E63-9FB9-B25FE72EB4E5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D3B5EB-83A6-4FF8-9549-C8921F190D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="demanddata_elec" sheetId="1" r:id="rId1"/>
+    <sheet name="Source" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">demanddata_elec!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="36">
   <si>
     <t>Country</t>
   </si>
@@ -123,13 +124,37 @@
   </si>
   <si>
     <t>UK00</t>
+  </si>
+  <si>
+    <t>MMStandardOutputFile_NT2030_Plexos_CY2009_2.5_v40.xlsx</t>
+  </si>
+  <si>
+    <t>Download | ENTSOs TYNDP 2024 Scenarios</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Available at</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>"Yearly outputs" sheet: Native Demand (excl. Pump load &amp; Battery charge) [GWh]</t>
+  </si>
+  <si>
+    <t>Download date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +166,40 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="AvenirNext LT Com Regular"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -173,19 +232,47 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
+    <cellStyle name="ČEPS" xfId="3" xr:uid="{055F4603-C55C-4D73-9C89-501612CA5A5D}"/>
+    <cellStyle name="Comma 2" xfId="4" xr:uid="{4D01FCE7-C6F2-4A9A-8B9B-FBFD721CF21A}"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2 3" xfId="1" xr:uid="{4910A6F4-EA01-4C97-BF08-2503EDD639ED}"/>
+    <cellStyle name="Normal 5" xfId="2" xr:uid="{3F0C574D-7EC4-4897-89EC-E327150F272B}"/>
   </cellStyles>
   <dxfs count="3">
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -214,20 +301,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -241,12 +314,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{61831BE0-AE50-4212-B37D-955570CB4FF4}" name="Table1" displayName="Table1" ref="A1:G21" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{61831BE0-AE50-4212-B37D-955570CB4FF4}" name="Table1" displayName="Table1" ref="A1:G21" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A1:G21" xr:uid="{61831BE0-AE50-4212-B37D-955570CB4FF4}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{B73B5779-FA90-4CF8-8AC2-B1F5DEF503AD}" name="Country"/>
@@ -549,21 +618,21 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.140625" customWidth="1"/>
-    <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -586,7 +655,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -603,7 +672,7 @@
         <v>115.37689150899971</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -620,7 +689,7 @@
         <v>714.08442927399847</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -637,7 +706,7 @@
         <v>16.45000153800002</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -654,7 +723,7 @@
         <v>29.36048438700006</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -671,7 +740,7 @@
         <v>9.9167633310000092</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -688,7 +757,7 @@
         <v>269.41357257199968</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -705,7 +774,7 @@
         <v>111.03198991900059</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -722,7 +791,7 @@
         <v>524.489237</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -739,7 +808,7 @@
         <v>17.19907800799994</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -756,7 +825,7 @@
         <v>8.688674716000012</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -773,7 +842,7 @@
         <v>157.04301004300001</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -790,7 +859,7 @@
         <v>31.82254412599999</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -807,7 +876,7 @@
         <v>26.707817104999972</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -824,7 +893,7 @@
         <v>119.3328557399999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -841,7 +910,7 @@
         <v>188.89833405500039</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -858,7 +927,7 @@
         <v>12.75936479900002</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -875,7 +944,7 @@
         <v>19.754218024999989</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -892,7 +961,7 @@
         <v>92.954299043999868</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -909,7 +978,7 @@
         <v>27.055300896999899</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -932,4 +1001,58 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF8CABA5-D53E-45E4-A27B-BA11C68CAB29}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="3">
+        <v>45771</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" display="https://2024.entsos-tyndp-scenarios.eu/download/" xr:uid="{AB5F61EE-0756-4D38-BEDC-3E09E4D76EB1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>